--- a/data/responses.xlsx
+++ b/data/responses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV46"/>
+  <dimension ref="A1:AV47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6457,10 +6457,8 @@
           <t>2025-05-14 22:43:10</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
+      <c r="B46" t="n">
+        <v>32</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -6482,214 +6480,372 @@
           <t>Bismillah2</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G46" t="n">
+        <v>3</v>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+      <c r="I46" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="n">
+        <v>2</v>
+      </c>
+      <c r="O46" t="n">
+        <v>3</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2</v>
+      </c>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2025-05-16 14:30:21</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Dompu</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>dsadasvdsfa</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="Y47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="Z47" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="AA47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U46" t="inlineStr">
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
+      <c r="AD47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="X46" t="inlineStr">
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y46" t="inlineStr">
+      <c r="AJ47" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
+      <c r="AK47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA46" t="inlineStr">
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AN47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AB46" t="inlineStr">
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AC46" t="inlineStr">
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AS47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AD46" t="inlineStr">
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU47" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH46" t="inlineStr">
+      <c r="AV47" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="AI46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AJ46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AK46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AL46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AM46" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AN46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AP46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AR46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AS46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AT46" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AU46" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AV46" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/data/responses.xlsx
+++ b/data/responses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV47"/>
+  <dimension ref="A1:AV48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6613,10 +6613,8 @@
           <t>2025-05-16 14:30:21</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
+      <c r="B47" t="n">
+        <v>43</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -6638,214 +6636,372 @@
           <t>dsadasvdsfa</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G47" t="n">
+        <v>2</v>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2</v>
+      </c>
+      <c r="J47" t="n">
+        <v>3</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>3</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="n">
+        <v>2</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2</v>
+      </c>
+      <c r="S47" t="n">
+        <v>2</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2</v>
+      </c>
+      <c r="W47" t="n">
+        <v>2</v>
+      </c>
+      <c r="X47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2025-05-16 14:53:10</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>bism</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="W48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="X48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="Y48" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
+      <c r="Z48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W47" t="inlineStr">
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X47" t="inlineStr">
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y47" t="inlineStr">
+      <c r="AH48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AA47" t="inlineStr">
+      <c r="AK48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AB47" t="inlineStr">
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AC47" t="inlineStr">
+      <c r="AN48" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AD47" t="inlineStr">
+      <c r="AO48" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE47" t="inlineStr">
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU48" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF47" t="inlineStr">
+      <c r="AV48" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="AG47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AH47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AI47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AJ47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AK47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AL47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AM47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AP47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AR47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AS47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AT47" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AU47" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AV47" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/data/responses.xlsx
+++ b/data/responses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV48"/>
+  <dimension ref="A1:AV49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6769,10 +6769,8 @@
           <t>2025-05-16 14:53:10</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="B48" t="n">
+        <v>34</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6794,214 +6792,372 @@
           <t>bism</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" t="n">
+        <v>2</v>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3</v>
+      </c>
+      <c r="K48" t="n">
+        <v>2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>2</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1</v>
+      </c>
+      <c r="T48" t="n">
+        <v>2</v>
+      </c>
+      <c r="U48" t="n">
+        <v>2</v>
+      </c>
+      <c r="V48" t="n">
+        <v>3</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2025-05-16 14:59:19</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>dsada</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="X49" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="Y49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="Z49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="AD49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W48" t="inlineStr">
+      <c r="AJ49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X48" t="inlineStr">
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr">
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AN49" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
+      <c r="AO49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA48" t="inlineStr">
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ49" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AB48" t="inlineStr">
+      <c r="AR49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AC48" t="inlineStr">
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AD48" t="inlineStr">
+      <c r="AU49" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG48" t="inlineStr">
+      <c r="AV49" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AJ48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AK48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AL48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AM48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AN48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AP48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AR48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AS48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AT48" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AU48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AV48" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>

--- a/data/responses.xlsx
+++ b/data/responses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV49"/>
+  <dimension ref="A1:AV50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6925,239 +6925,395 @@
           <t>2025-05-16 14:59:19</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>23</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>dsada</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>4</v>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" t="n">
+        <v>2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="n">
+        <v>2</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>2</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3</v>
+      </c>
+      <c r="W49" t="n">
+        <v>2</v>
+      </c>
+      <c r="X49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2025-05-21 09:39:06</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Bali, Indonesia</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>D3</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Medan</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>dsada</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Dragahai</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
+      <c r="AB50" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="W49" t="inlineStr">
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AD50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X49" t="inlineStr">
+      <c r="AE50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AF50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AG50" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y49" t="inlineStr">
+      <c r="AH50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
+      <c r="AI50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AA49" t="inlineStr">
+      <c r="AK50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
+      <c r="AL50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AM50" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AC49" t="inlineStr">
+      <c r="AN50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AO50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AQ50" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR50" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="AD49" t="inlineStr">
+      <c r="AS50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE49" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="AF49" t="inlineStr">
+      <c r="AU50" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG49" t="inlineStr">
+      <c r="AV50" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AJ49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AK49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AL49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AM49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AN49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AO49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AP49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ49" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AR49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AS49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AT49" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AU49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AV49" t="inlineStr">
-        <is>
-          <t>3</t>
         </is>
       </c>
     </row>

--- a/data/responses.xlsx
+++ b/data/responses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV50"/>
+  <dimension ref="A1:AV51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7081,10 +7081,8 @@
           <t>2025-05-21 09:39:06</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="B50" t="n">
+        <v>23</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -7106,212 +7104,370 @@
           <t>Dragahai</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G50" t="n">
+        <v>3</v>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2</v>
+      </c>
+      <c r="U50" t="n">
+        <v>3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2</v>
+      </c>
+      <c r="W50" t="n">
+        <v>2</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2025-05-21 10:00:03</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Medan</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Dragahalo</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="X51" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="AC51" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AF51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AG51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AH51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AI51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AK51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AL51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AN51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AO51" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="AP51" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="AQ51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AS51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AT51" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU51" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AF50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AG50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AJ50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AK50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AL50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AM50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AN50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AP50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR50" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AS50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AT50" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AU50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AV50" t="inlineStr">
+      <c r="AV51" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/data/responses.xlsx
+++ b/data/responses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV51"/>
+  <dimension ref="A1:AV52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7237,237 +7237,393 @@
           <t>2025-05-21 10:00:03</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>34</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Medan</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Dragahalo</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>3</v>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3</v>
+      </c>
+      <c r="L51" t="n">
+        <v>2</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>2</v>
+      </c>
+      <c r="P51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="n">
+        <v>2</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2</v>
+      </c>
+      <c r="W51" t="n">
+        <v>3</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2025-05-21 10:34:00</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>34</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Medan</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>SMA/SMK</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>male</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Dragahalo</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>dasdsd</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="W52" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AD52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AE52" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="AF52" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="AG52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AH52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AJ52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AK52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AL52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AN52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AO52" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="AP52" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr">
+      <c r="AQ52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AR52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AS52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AT52" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="V51" t="inlineStr">
+      <c r="AU52" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AJ51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AK51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AL51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AM51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AN51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AP51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR51" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AS51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AT51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AU51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AV51" t="inlineStr">
+      <c r="AV52" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/data/responses.xlsx
+++ b/data/responses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV52"/>
+  <dimension ref="A1:AV59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7393,10 +7393,8 @@
           <t>2025-05-21 10:34:00</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
+      <c r="B52" t="n">
+        <v>34</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -7418,212 +7416,1306 @@
           <t>dasdsd</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G52" t="n">
+        <v>2</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>2</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3</v>
+      </c>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2</v>
+      </c>
+      <c r="X52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2025-05-24 22:59:53</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>34</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Bali, Indonesia</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>jimmnnkk</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>3</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="n">
+        <v>3</v>
+      </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1</v>
+      </c>
+      <c r="X53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2025-05-26 11:37:50</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>45</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>2</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="n">
+        <v>3</v>
+      </c>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2</v>
+      </c>
+      <c r="W54" t="n">
+        <v>3</v>
+      </c>
+      <c r="X54" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2025-05-26 11:48:38</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>45</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+      <c r="I55" t="n">
+        <v>4</v>
+      </c>
+      <c r="J55" t="n">
+        <v>4</v>
+      </c>
+      <c r="K55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="n">
+        <v>4</v>
+      </c>
+      <c r="O55" t="n">
+        <v>4</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="n">
+        <v>4</v>
+      </c>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>4</v>
+      </c>
+      <c r="W55" t="n">
+        <v>4</v>
+      </c>
+      <c r="X55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2025-05-26 11:57:52</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>23</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Medan</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Bahteramon</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>2</v>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3</v>
+      </c>
+      <c r="L56" t="n">
+        <v>2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="n">
+        <v>4</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>4</v>
+      </c>
+      <c r="W56" t="n">
+        <v>3</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2025-05-26 15:01:19</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>23</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Medan</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Bahteramon</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="n">
+        <v>3</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3</v>
+      </c>
+      <c r="L57" t="n">
+        <v>3</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="n">
+        <v>3</v>
+      </c>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>2</v>
+      </c>
+      <c r="W57" t="n">
+        <v>3</v>
+      </c>
+      <c r="X57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2025-05-26 15:12:41</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>23</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Medan</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bahteramon</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>3</v>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" t="n">
+        <v>3</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="n">
+        <v>2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>3</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="n">
+        <v>2</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2</v>
+      </c>
+      <c r="W58" t="n">
+        <v>3</v>
+      </c>
+      <c r="X58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2025-05-26 15:20:11</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Medan</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SMP</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Bahteramon</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="N59" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="O59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L52" t="inlineStr">
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="X59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="AC59" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="AD59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AF59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="AG59" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr">
+      <c r="AH59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
+      <c r="AI59" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="X52" t="inlineStr">
+      <c r="AK59" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Y52" t="inlineStr">
+      <c r="AL59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr">
+      <c r="AM59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr">
+      <c r="AN59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AD52" t="inlineStr">
+      <c r="AO59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AE52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AF52" t="inlineStr">
+      <c r="AP59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH52" t="inlineStr">
+      <c r="AQ59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AI52" t="inlineStr">
+      <c r="AR59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AJ52" t="inlineStr">
+      <c r="AS59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AK52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AL52" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AM52" t="inlineStr">
+      <c r="AU59" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="AN52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AP52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR52" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AS52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AT52" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AU52" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AV52" t="inlineStr">
+      <c r="AV59" t="inlineStr">
         <is>
           <t>2</t>
         </is>

--- a/data/responses.xlsx
+++ b/data/responses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV59"/>
+  <dimension ref="A1:AV86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8485,10 +8485,8 @@
           <t>2025-05-26 15:20:11</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+      <c r="B59" t="n">
+        <v>23</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -8510,214 +8508,4428 @@
           <t>Bahteramon</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" t="n">
+        <v>3</v>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3</v>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3</v>
+      </c>
+      <c r="L59" t="n">
+        <v>3</v>
+      </c>
+      <c r="M59" t="n">
+        <v>2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2</v>
+      </c>
+      <c r="T59" t="n">
+        <v>3</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2</v>
+      </c>
+      <c r="W59" t="n">
+        <v>3</v>
+      </c>
+      <c r="X59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2025-05-26 21:46:17</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>34</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Dompu</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>3</v>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3</v>
+      </c>
+      <c r="M60" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="n">
+        <v>3</v>
+      </c>
+      <c r="U60" t="n">
+        <v>2</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2</v>
+      </c>
+      <c r="W60" t="n">
+        <v>3</v>
+      </c>
+      <c r="X60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2025-05-26 21:54:17</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>34</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Dompu</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>S1/D4</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="n">
+        <v>4</v>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="n">
+        <v>3</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2</v>
+      </c>
+      <c r="V61" t="n">
+        <v>3</v>
+      </c>
+      <c r="W61" t="n">
+        <v>2</v>
+      </c>
+      <c r="X61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:00:14</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>34</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Dompu</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3</v>
+      </c>
+      <c r="J62" t="n">
+        <v>2</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="n">
+        <v>2</v>
+      </c>
+      <c r="O62" t="n">
+        <v>2</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="n">
+        <v>2</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2</v>
+      </c>
+      <c r="W62" t="n">
+        <v>2</v>
+      </c>
+      <c r="X62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:05:55</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>34</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Dompu</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SMP</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>3</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="n">
+        <v>4</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="n">
+        <v>4</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>3</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2</v>
+      </c>
+      <c r="T63" t="n">
+        <v>3</v>
+      </c>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2</v>
+      </c>
+      <c r="W63" t="n">
+        <v>3</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:09:11</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>34</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Dompu</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="n">
+        <v>3</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>3</v>
+      </c>
+      <c r="W64" t="n">
+        <v>2</v>
+      </c>
+      <c r="X64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:17:35</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>34</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Dompu</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>3</v>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="n">
+        <v>2</v>
+      </c>
+      <c r="O65" t="n">
+        <v>3</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="n">
+        <v>3</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2</v>
+      </c>
+      <c r="W65" t="n">
+        <v>3</v>
+      </c>
+      <c r="X65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:22:35</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>34</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Dompu</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SMP</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>2</v>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2</v>
+      </c>
+      <c r="J66" t="n">
+        <v>3</v>
+      </c>
+      <c r="K66" t="n">
+        <v>2</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3</v>
+      </c>
+      <c r="M66" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+      <c r="O66" t="n">
+        <v>3</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>3</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2</v>
+      </c>
+      <c r="S66" t="n">
+        <v>3</v>
+      </c>
+      <c r="T66" t="n">
+        <v>2</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3</v>
+      </c>
+      <c r="V66" t="n">
+        <v>3</v>
+      </c>
+      <c r="W66" t="n">
+        <v>2</v>
+      </c>
+      <c r="X66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:26:07</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>34</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Dompu</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>2</v>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3</v>
+      </c>
+      <c r="J67" t="n">
+        <v>2</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="n">
+        <v>3</v>
+      </c>
+      <c r="P67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="n">
+        <v>3</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3</v>
+      </c>
+      <c r="W67" t="n">
+        <v>2</v>
+      </c>
+      <c r="X67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:28:54</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>34</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Dompu</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1</v>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="n">
+        <v>2</v>
+      </c>
+      <c r="O68" t="n">
+        <v>3</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="n">
+        <v>3</v>
+      </c>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2</v>
+      </c>
+      <c r="W68" t="n">
+        <v>3</v>
+      </c>
+      <c r="X68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-05-26 22:30:55</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>34</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Dompu</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3</v>
+      </c>
+      <c r="J69" t="n">
+        <v>4</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
+      <c r="O69" t="n">
+        <v>3</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="n">
+        <v>3</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>3</v>
+      </c>
+      <c r="W69" t="n">
+        <v>2</v>
+      </c>
+      <c r="X69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-05-27 10:12:46</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>34</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>2</v>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+      <c r="I70" t="n">
+        <v>2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="n">
+        <v>2</v>
+      </c>
+      <c r="O70" t="n">
+        <v>3</v>
+      </c>
+      <c r="P70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="n">
+        <v>2</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>3</v>
+      </c>
+      <c r="W70" t="n">
+        <v>2</v>
+      </c>
+      <c r="X70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-05-27 10:15:32</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>34</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="n">
+        <v>3</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3</v>
+      </c>
+      <c r="K71" t="n">
+        <v>4</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4</v>
+      </c>
+      <c r="O71" t="n">
+        <v>3</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2</v>
+      </c>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2</v>
+      </c>
+      <c r="W71" t="n">
+        <v>3</v>
+      </c>
+      <c r="X71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:17:03</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>34</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>SMP</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>2</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" t="n">
+        <v>2</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3</v>
+      </c>
+      <c r="W72" t="n">
+        <v>2</v>
+      </c>
+      <c r="X72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:25:17</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>34</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SMP</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="n">
+        <v>3</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="n">
+        <v>3</v>
+      </c>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2</v>
+      </c>
+      <c r="W73" t="n">
+        <v>3</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:27:01</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>34</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>2</v>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>2</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2</v>
+      </c>
+      <c r="W74" t="n">
+        <v>3</v>
+      </c>
+      <c r="X74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:29:20</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>34</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2</v>
+      </c>
+      <c r="T75" t="n">
+        <v>3</v>
+      </c>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>3</v>
+      </c>
+      <c r="W75" t="n">
+        <v>2</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:31:31</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>34</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>SMP</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="n">
+        <v>4</v>
+      </c>
+      <c r="O76" t="n">
+        <v>3</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="n">
+        <v>3</v>
+      </c>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>4</v>
+      </c>
+      <c r="W76" t="n">
+        <v>4</v>
+      </c>
+      <c r="X76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:34:38</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>34</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>2</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="n">
+        <v>3</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2</v>
+      </c>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2</v>
+      </c>
+      <c r="W77" t="n">
+        <v>3</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:36:23</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>34</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>4</v>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+      <c r="I78" t="n">
+        <v>4</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4</v>
+      </c>
+      <c r="K78" t="n">
+        <v>4</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="n">
+        <v>4</v>
+      </c>
+      <c r="O78" t="n">
+        <v>4</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="n">
+        <v>4</v>
+      </c>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>4</v>
+      </c>
+      <c r="W78" t="n">
+        <v>4</v>
+      </c>
+      <c r="X78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:38:09</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>34</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SMP</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>4</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4</v>
+      </c>
+      <c r="K79" t="n">
+        <v>4</v>
+      </c>
+      <c r="L79" t="n">
+        <v>4</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="n">
+        <v>4</v>
+      </c>
+      <c r="O79" t="n">
+        <v>4</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="n">
+        <v>4</v>
+      </c>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>4</v>
+      </c>
+      <c r="W79" t="n">
+        <v>4</v>
+      </c>
+      <c r="X79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:45:53</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>34</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>4</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+      <c r="I80" t="n">
+        <v>4</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4</v>
+      </c>
+      <c r="K80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L80" t="n">
+        <v>4</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="n">
+        <v>4</v>
+      </c>
+      <c r="O80" t="n">
+        <v>4</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="n">
+        <v>4</v>
+      </c>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>4</v>
+      </c>
+      <c r="W80" t="n">
+        <v>4</v>
+      </c>
+      <c r="X80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:48:26</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>34</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>4</v>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+      <c r="I81" t="n">
+        <v>4</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4</v>
+      </c>
+      <c r="K81" t="n">
+        <v>4</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="n">
+        <v>4</v>
+      </c>
+      <c r="O81" t="n">
+        <v>4</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="n">
+        <v>4</v>
+      </c>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>4</v>
+      </c>
+      <c r="W81" t="n">
+        <v>4</v>
+      </c>
+      <c r="X81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:51:12</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>34</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>4</v>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+      <c r="I82" t="n">
+        <v>4</v>
+      </c>
+      <c r="J82" t="n">
+        <v>4</v>
+      </c>
+      <c r="K82" t="n">
+        <v>4</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="n">
+        <v>4</v>
+      </c>
+      <c r="O82" t="n">
+        <v>4</v>
+      </c>
+      <c r="P82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>4</v>
+      </c>
+      <c r="T82" t="n">
+        <v>4</v>
+      </c>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>4</v>
+      </c>
+      <c r="W82" t="n">
+        <v>4</v>
+      </c>
+      <c r="X82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:53:33</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>34</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>4</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+      <c r="I83" t="n">
+        <v>4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>4</v>
+      </c>
+      <c r="K83" t="n">
+        <v>4</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4</v>
+      </c>
+      <c r="O83" t="n">
+        <v>4</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="n">
+        <v>4</v>
+      </c>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>4</v>
+      </c>
+      <c r="W83" t="n">
+        <v>4</v>
+      </c>
+      <c r="X83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:55:10</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>34</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>4</v>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+      <c r="I84" t="n">
+        <v>4</v>
+      </c>
+      <c r="J84" t="n">
+        <v>4</v>
+      </c>
+      <c r="K84" t="n">
+        <v>4</v>
+      </c>
+      <c r="L84" t="n">
+        <v>4</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="n">
+        <v>4</v>
+      </c>
+      <c r="O84" t="n">
+        <v>4</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="n">
+        <v>4</v>
+      </c>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>4</v>
+      </c>
+      <c r="W84" t="n">
+        <v>4</v>
+      </c>
+      <c r="X84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:56:51</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>34</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>SMA/SMK</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>4</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+      <c r="I85" t="n">
+        <v>4</v>
+      </c>
+      <c r="J85" t="n">
+        <v>4</v>
+      </c>
+      <c r="K85" t="n">
+        <v>4</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="n">
+        <v>4</v>
+      </c>
+      <c r="O85" t="n">
+        <v>4</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="n">
+        <v>4</v>
+      </c>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>4</v>
+      </c>
+      <c r="W85" t="n">
+        <v>4</v>
+      </c>
+      <c r="X85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-05-27 14:58:09</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Jakarta</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>M. Rakhmat Dramaga</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="W86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="Z86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AA86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AB86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AC86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AD86" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="AE86" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="AF86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AG86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AH86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AI86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AJ86" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="AK86" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="AL86" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AM86" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="AN86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AO86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AP86" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="AQ86" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="AR86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="AS86" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AT86" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="AU86" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
+      <c r="AV86" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AE59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AH59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AJ59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AK59" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="AL59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AM59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AN59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AO59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AP59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AQ59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AR59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AS59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AT59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AU59" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="AV59" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
